--- a/22-23_KBL_stats.xlsx
+++ b/22-23_KBL_stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Project\2025\기타\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E27FCE3-34D4-44FE-A4ED-A418C74970C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F140CDB2-11E8-4992-8D74-15FDB123731F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C857A6F3-DAC3-47BF-9FFB-2634F9EBE6C3}"/>
   </bookViews>
@@ -660,9 +660,6 @@
     <t>안양 KGC</t>
   </si>
   <si>
-    <t>울산 모비즈</t>
-  </si>
-  <si>
     <t>원주 DB</t>
   </si>
   <si>
@@ -850,6 +847,10 @@
   </si>
   <si>
     <t>고양 캐롯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>울산 모비스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1445,10 +1446,10 @@
   <dimension ref="A1:BP198"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E140" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C149" sqref="C149"/>
+      <selection pane="bottomRight" activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1725,7 +1726,7 @@
     </row>
     <row r="2" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>197</v>
@@ -1951,7 +1952,7 @@
     </row>
     <row r="3" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>197</v>
@@ -2155,7 +2156,7 @@
     </row>
     <row r="4" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>197</v>
@@ -2381,7 +2382,7 @@
     </row>
     <row r="5" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>197</v>
@@ -2601,12 +2602,12 @@
         <v>9.1240875912408761</v>
       </c>
       <c r="BO5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A6" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>197</v>
@@ -2831,7 +2832,7 @@
     </row>
     <row r="7" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A7" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>197</v>
@@ -3057,7 +3058,7 @@
     </row>
     <row r="8" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A8" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>197</v>
@@ -3281,7 +3282,7 @@
     </row>
     <row r="9" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A9" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>197</v>
@@ -3505,13 +3506,13 @@
     </row>
     <row r="10" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A10" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>197</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D10" s="4">
         <v>2</v>
@@ -3730,7 +3731,7 @@
     </row>
     <row r="11" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A11" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>197</v>
@@ -3950,13 +3951,13 @@
         <v>7.6348829317950457</v>
       </c>
       <c r="BO11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="BP11" s="18"/>
     </row>
     <row r="12" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A12" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>197</v>
@@ -4182,7 +4183,7 @@
     </row>
     <row r="13" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A13" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>197</v>
@@ -4408,7 +4409,7 @@
     </row>
     <row r="14" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A14" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>197</v>
@@ -4634,7 +4635,7 @@
     </row>
     <row r="15" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A15" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>197</v>
@@ -4860,7 +4861,7 @@
     </row>
     <row r="16" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A16" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>197</v>
@@ -5086,7 +5087,7 @@
     </row>
     <row r="17" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A17" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>197</v>
@@ -5311,10 +5312,10 @@
     </row>
     <row r="18" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A18" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>92</v>
@@ -5536,10 +5537,10 @@
     </row>
     <row r="19" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A19" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>154</v>
@@ -5762,10 +5763,10 @@
     </row>
     <row r="20" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A20" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>148</v>
@@ -5982,16 +5983,16 @@
         <v>11.093709214304358</v>
       </c>
       <c r="BO20" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="BP20" s="18"/>
     </row>
     <row r="21" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A21" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>155</v>
@@ -6213,10 +6214,10 @@
     </row>
     <row r="22" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A22" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>108</v>
@@ -6439,10 +6440,10 @@
     </row>
     <row r="23" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A23" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>142</v>
@@ -6659,16 +6660,16 @@
         <v>13.256628314157078</v>
       </c>
       <c r="BO23" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="BP23" s="18"/>
     </row>
     <row r="24" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A24" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>149</v>
@@ -6890,10 +6891,10 @@
     </row>
     <row r="25" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A25" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>151</v>
@@ -7116,10 +7117,10 @@
     </row>
     <row r="26" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A26" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>147</v>
@@ -7341,13 +7342,13 @@
     </row>
     <row r="27" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A27" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D27" s="4">
         <v>2</v>
@@ -7567,10 +7568,10 @@
     </row>
     <row r="28" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A28" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>152</v>
@@ -7793,13 +7794,13 @@
     </row>
     <row r="29" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A29" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D29" s="4">
         <v>1</v>
@@ -8019,10 +8020,10 @@
     </row>
     <row r="30" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A30" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>144</v>
@@ -8245,10 +8246,10 @@
     </row>
     <row r="31" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A31" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C31" s="14" t="s">
         <v>153</v>
@@ -8448,10 +8449,10 @@
     </row>
     <row r="32" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A32" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>145</v>
@@ -8666,15 +8667,15 @@
         <v>22.618641174462276</v>
       </c>
       <c r="BO32" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="33" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A33" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>150</v>
@@ -8896,10 +8897,10 @@
     </row>
     <row r="34" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A34" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>146</v>
@@ -9122,13 +9123,13 @@
     </row>
     <row r="35" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A35" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D35" s="17">
         <v>7</v>
@@ -9326,10 +9327,10 @@
     </row>
     <row r="36" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A36" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>156</v>
@@ -9552,10 +9553,10 @@
     </row>
     <row r="37" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A37" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>104</v>
@@ -9776,10 +9777,10 @@
     </row>
     <row r="38" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A38" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>102</v>
@@ -10002,10 +10003,10 @@
     </row>
     <row r="39" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A39" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>115</v>
@@ -10228,10 +10229,10 @@
     </row>
     <row r="40" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A40" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>112</v>
@@ -10454,10 +10455,10 @@
     </row>
     <row r="41" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A41" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>110</v>
@@ -10680,13 +10681,13 @@
     </row>
     <row r="42" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A42" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D42" s="17">
         <v>12</v>
@@ -10900,19 +10901,19 @@
         <v>10.480182926829269</v>
       </c>
       <c r="BO42" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="BP42" s="18"/>
     </row>
     <row r="43" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A43" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D43" s="17">
         <v>53</v>
@@ -11126,16 +11127,16 @@
         <v>12.716811207471647</v>
       </c>
       <c r="BO43" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="BP43" s="18"/>
     </row>
     <row r="44" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A44" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>105</v>
@@ -11354,10 +11355,10 @@
     </row>
     <row r="45" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A45" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>113</v>
@@ -11580,10 +11581,10 @@
     </row>
     <row r="46" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A46" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>133</v>
@@ -11804,13 +11805,13 @@
     </row>
     <row r="47" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A47" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D47" s="17">
         <v>13</v>
@@ -12030,10 +12031,10 @@
     </row>
     <row r="48" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A48" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>107</v>
@@ -12249,16 +12250,16 @@
         <v>11.649698627361596</v>
       </c>
       <c r="BO48" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="BP48" s="18"/>
     </row>
     <row r="49" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A49" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>111</v>
@@ -12481,10 +12482,10 @@
     </row>
     <row r="50" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A50" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>114</v>
@@ -12707,10 +12708,10 @@
     </row>
     <row r="51" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A51" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>116</v>
@@ -12930,13 +12931,13 @@
     </row>
     <row r="52" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A52" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D52" s="17">
         <v>34</v>
@@ -13155,10 +13156,10 @@
     </row>
     <row r="53" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A53" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>106</v>
@@ -13380,10 +13381,10 @@
     </row>
     <row r="54" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A54" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>202</v>
+        <v>259</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>88</v>
@@ -13599,16 +13600,16 @@
         <v>10.569695934403827</v>
       </c>
       <c r="BO54" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="BP54" s="18"/>
     </row>
     <row r="55" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A55" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>202</v>
+        <v>259</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>93</v>
@@ -13831,13 +13832,13 @@
     </row>
     <row r="56" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A56" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>202</v>
+        <v>259</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D56" s="4">
         <v>27</v>
@@ -14057,10 +14058,10 @@
     </row>
     <row r="57" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A57" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>202</v>
+        <v>259</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>109</v>
@@ -14283,10 +14284,10 @@
     </row>
     <row r="58" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A58" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>202</v>
+        <v>259</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>124</v>
@@ -14508,10 +14509,10 @@
     </row>
     <row r="59" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A59" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>202</v>
+        <v>259</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>97</v>
@@ -14734,10 +14735,10 @@
     </row>
     <row r="60" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A60" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>202</v>
+        <v>259</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>98</v>
@@ -14960,13 +14961,13 @@
     </row>
     <row r="61" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A61" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>202</v>
+        <v>259</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D61" s="4">
         <v>1</v>
@@ -15186,10 +15187,10 @@
     </row>
     <row r="62" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A62" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>202</v>
+        <v>259</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>100</v>
@@ -15412,10 +15413,10 @@
     </row>
     <row r="63" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A63" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>202</v>
+        <v>259</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>101</v>
@@ -15638,10 +15639,10 @@
     </row>
     <row r="64" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A64" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>202</v>
+        <v>259</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>95</v>
@@ -15864,10 +15865,10 @@
     </row>
     <row r="65" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A65" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>202</v>
+        <v>259</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>91</v>
@@ -16089,10 +16090,10 @@
     </row>
     <row r="66" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A66" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>202</v>
+        <v>259</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>90</v>
@@ -16315,13 +16316,13 @@
     </row>
     <row r="67" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A67" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>202</v>
+        <v>259</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D67" s="4">
         <v>20</v>
@@ -16535,19 +16536,19 @@
         <v>17.116588419405321</v>
       </c>
       <c r="BO67" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="BP67" s="18"/>
     </row>
     <row r="68" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A68" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>202</v>
+        <v>259</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D68" s="4">
         <v>4</v>
@@ -16767,10 +16768,10 @@
     </row>
     <row r="69" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A69" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>202</v>
+        <v>259</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>94</v>
@@ -16993,10 +16994,10 @@
     </row>
     <row r="70" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A70" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>202</v>
+        <v>259</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>89</v>
@@ -17218,7 +17219,7 @@
     </row>
     <row r="71" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A71" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>201</v>
@@ -17444,7 +17445,7 @@
     </row>
     <row r="72" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A72" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>201</v>
@@ -17669,7 +17670,7 @@
     </row>
     <row r="73" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A73" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>201</v>
@@ -17893,13 +17894,13 @@
     </row>
     <row r="74" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A74" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>201</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D74" s="4">
         <v>48</v>
@@ -18113,13 +18114,13 @@
         <v>14.822971370489581</v>
       </c>
       <c r="BO74" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="BP74" s="18"/>
     </row>
     <row r="75" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A75" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>201</v>
@@ -18339,13 +18340,13 @@
         <v>12.274959083469721</v>
       </c>
       <c r="BO75" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="BP75" s="18"/>
     </row>
     <row r="76" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A76" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>201</v>
@@ -18570,13 +18571,13 @@
     </row>
     <row r="77" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A77" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>201</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D77" s="4">
         <v>54</v>
@@ -18796,7 +18797,7 @@
     </row>
     <row r="78" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A78" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>201</v>
@@ -19022,13 +19023,13 @@
     </row>
     <row r="79" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A79" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>201</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D79" s="4">
         <v>53</v>
@@ -19248,13 +19249,13 @@
     </row>
     <row r="80" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A80" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>201</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D80" s="4">
         <v>51</v>
@@ -19468,13 +19469,13 @@
         <v>7.6140097779915044</v>
       </c>
       <c r="BO80" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="BP80" s="18"/>
     </row>
     <row r="81" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A81" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>201</v>
@@ -19700,7 +19701,7 @@
     </row>
     <row r="82" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A82" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>201</v>
@@ -19924,7 +19925,7 @@
     </row>
     <row r="83" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A83" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>201</v>
@@ -20150,7 +20151,7 @@
     </row>
     <row r="84" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A84" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>201</v>
@@ -20376,7 +20377,7 @@
     </row>
     <row r="85" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A85" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>201</v>
@@ -20601,13 +20602,13 @@
     </row>
     <row r="86" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A86" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>201</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D86" s="4">
         <v>38</v>
@@ -20827,7 +20828,7 @@
     </row>
     <row r="87" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A87" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>201</v>
@@ -21053,7 +21054,7 @@
     </row>
     <row r="88" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A88" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>200</v>
@@ -21279,7 +21280,7 @@
     </row>
     <row r="89" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A89" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>200</v>
@@ -21505,7 +21506,7 @@
     </row>
     <row r="90" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A90" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>200</v>
@@ -21731,13 +21732,13 @@
     </row>
     <row r="91" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A91" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>200</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D91" s="4">
         <v>21</v>
@@ -21951,19 +21952,19 @@
         <v>15.40492957746479</v>
       </c>
       <c r="BO91" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="BP91" s="18"/>
     </row>
     <row r="92" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A92" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>200</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D92" s="4">
         <v>33</v>
@@ -22176,18 +22177,18 @@
         <v>11.111111111111111</v>
       </c>
       <c r="BO92" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="93" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A93" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>200</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D93" s="4">
         <v>34</v>
@@ -22407,7 +22408,7 @@
     </row>
     <row r="94" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A94" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>200</v>
@@ -22632,7 +22633,7 @@
     </row>
     <row r="95" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A95" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>200</v>
@@ -22857,7 +22858,7 @@
     </row>
     <row r="96" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A96" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>200</v>
@@ -23083,13 +23084,13 @@
     </row>
     <row r="97" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A97" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>200</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D97" s="4">
         <v>32</v>
@@ -23303,13 +23304,13 @@
         <v>12.312743689718859</v>
       </c>
       <c r="BO97" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="BP97" s="18"/>
     </row>
     <row r="98" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A98" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>200</v>
@@ -23534,7 +23535,7 @@
     </row>
     <row r="99" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A99" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>200</v>
@@ -23759,7 +23760,7 @@
     </row>
     <row r="100" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A100" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>200</v>
@@ -23777,14 +23778,14 @@
         <v>21</v>
       </c>
       <c r="G100" s="2">
-        <f t="shared" ref="G100:G131" si="77">(E100*60+F100)*D100</f>
+        <f t="shared" ref="G100:G102" si="77">(E100*60+F100)*D100</f>
         <v>7515</v>
       </c>
       <c r="H100" s="2">
         <v>39</v>
       </c>
       <c r="I100" s="5">
-        <f t="shared" ref="I100:I131" si="78">H100/$D100</f>
+        <f t="shared" ref="I100:I102" si="78">H100/$D100</f>
         <v>2.6</v>
       </c>
       <c r="J100" s="2">
@@ -23863,56 +23864,56 @@
         <v>16</v>
       </c>
       <c r="AE100" s="5">
-        <f t="shared" ref="AE100:AE131" si="79">AD100/$D100</f>
+        <f t="shared" ref="AE100:AE102" si="79">AD100/$D100</f>
         <v>1.0666666666666667</v>
       </c>
       <c r="AF100" s="4">
         <v>3</v>
       </c>
       <c r="AG100" s="5">
-        <f t="shared" ref="AG100:AG131" si="80">AF100/$D100</f>
+        <f t="shared" ref="AG100:AG102" si="80">AF100/$D100</f>
         <v>0.2</v>
       </c>
       <c r="AH100" s="4">
         <v>13</v>
       </c>
       <c r="AI100" s="5">
-        <f t="shared" ref="AI100:AI131" si="81">AH100/$D100</f>
+        <f t="shared" ref="AI100:AI102" si="81">AH100/$D100</f>
         <v>0.8666666666666667</v>
       </c>
       <c r="AJ100" s="4">
         <v>15</v>
       </c>
       <c r="AK100" s="5">
-        <f t="shared" ref="AK100:AK131" si="82">AJ100/$D100</f>
+        <f t="shared" ref="AK100:AK102" si="82">AJ100/$D100</f>
         <v>1</v>
       </c>
       <c r="AL100" s="4">
         <v>2</v>
       </c>
       <c r="AM100" s="5">
-        <f t="shared" ref="AM100:AM131" si="83">AL100/$D100</f>
+        <f t="shared" ref="AM100:AM102" si="83">AL100/$D100</f>
         <v>0.13333333333333333</v>
       </c>
       <c r="AN100" s="4">
         <v>0</v>
       </c>
       <c r="AO100" s="5">
-        <f t="shared" ref="AO100:AO131" si="84">AN100/$D100</f>
+        <f t="shared" ref="AO100:AO102" si="84">AN100/$D100</f>
         <v>0</v>
       </c>
       <c r="AP100" s="10">
         <v>10</v>
       </c>
       <c r="AQ100" s="5">
-        <f t="shared" ref="AQ100:AQ131" si="85">AP100/$D100</f>
+        <f t="shared" ref="AQ100:AQ102" si="85">AP100/$D100</f>
         <v>0.66666666666666663</v>
       </c>
       <c r="AR100" s="4">
         <v>20</v>
       </c>
       <c r="AS100" s="5">
-        <f t="shared" ref="AS100:AS131" si="86">AR100/$D100</f>
+        <f t="shared" ref="AS100:AS102" si="86">AR100/$D100</f>
         <v>1.3333333333333333</v>
       </c>
       <c r="AT100" s="6">
@@ -23985,7 +23986,7 @@
     </row>
     <row r="101" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A101" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>200</v>
@@ -24211,7 +24212,7 @@
     </row>
     <row r="102" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A102" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>200</v>
@@ -24437,13 +24438,13 @@
     </row>
     <row r="103" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A103" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C103" s="23" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D103" s="24">
         <v>39</v>
@@ -24641,13 +24642,13 @@
     </row>
     <row r="104" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A104" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>199</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D104" s="4">
         <v>3</v>
@@ -24867,7 +24868,7 @@
     </row>
     <row r="105" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A105" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>199</v>
@@ -25092,7 +25093,7 @@
     </row>
     <row r="106" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A106" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>199</v>
@@ -25318,7 +25319,7 @@
     </row>
     <row r="107" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A107" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>199</v>
@@ -25522,7 +25523,7 @@
     </row>
     <row r="108" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A108" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>199</v>
@@ -25748,7 +25749,7 @@
     </row>
     <row r="109" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A109" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>199</v>
@@ -25974,7 +25975,7 @@
     </row>
     <row r="110" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A110" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>199</v>
@@ -26199,7 +26200,7 @@
     </row>
     <row r="111" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A111" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>199</v>
@@ -26425,13 +26426,13 @@
     </row>
     <row r="112" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A112" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>199</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D112" s="4">
         <v>11</v>
@@ -26645,19 +26646,19 @@
         <v>13.483355030686255</v>
       </c>
       <c r="BO112" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="BP112" s="18"/>
     </row>
     <row r="113" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A113" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>199</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D113" s="4">
         <v>1</v>
@@ -26877,7 +26878,7 @@
     </row>
     <row r="114" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A114" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>199</v>
@@ -27103,13 +27104,13 @@
     </row>
     <row r="115" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A115" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>199</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D115" s="4">
         <v>22</v>
@@ -27323,13 +27324,13 @@
         <v>10.447137484329293</v>
       </c>
       <c r="BO115" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="BP115" s="18"/>
     </row>
     <row r="116" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A116" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>199</v>
@@ -27555,7 +27556,7 @@
     </row>
     <row r="117" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A117" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>199</v>
@@ -27779,7 +27780,7 @@
     </row>
     <row r="118" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A118" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>199</v>
@@ -28004,7 +28005,7 @@
     </row>
     <row r="119" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A119" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>199</v>
@@ -28230,7 +28231,7 @@
     </row>
     <row r="120" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A120" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>199</v>
@@ -28434,13 +28435,13 @@
     </row>
     <row r="121" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A121" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>199</v>
       </c>
       <c r="C121" s="14" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D121" s="4">
         <v>10</v>
@@ -28632,13 +28633,13 @@
         <v>5.7515337423312891</v>
       </c>
       <c r="BO121" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="BP121" s="18"/>
     </row>
     <row r="122" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A122" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>199</v>
@@ -28860,7 +28861,7 @@
     </row>
     <row r="123" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A123" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>199</v>
@@ -29085,13 +29086,13 @@
     </row>
     <row r="124" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A124" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>199</v>
       </c>
       <c r="C124" s="14" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D124" s="4">
         <v>6</v>
@@ -29289,13 +29290,13 @@
     </row>
     <row r="125" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A125" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C125" s="23" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D125" s="24">
         <v>33</v>
@@ -29487,19 +29488,19 @@
         <v>7.791923008398717</v>
       </c>
       <c r="BO125" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="BP125" s="18"/>
     </row>
     <row r="126" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A126" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C126" s="23" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D126" s="24">
         <v>52</v>
@@ -29697,10 +29698,10 @@
     </row>
     <row r="127" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A127" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>81</v>
@@ -29922,10 +29923,10 @@
     </row>
     <row r="128" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A128" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>86</v>
@@ -30148,10 +30149,10 @@
     </row>
     <row r="129" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A129" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>178</v>
@@ -30371,10 +30372,10 @@
     </row>
     <row r="130" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A130" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>96</v>
@@ -30597,13 +30598,13 @@
     </row>
     <row r="131" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A131" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D131" s="4">
         <v>13</v>
@@ -30813,16 +30814,16 @@
         <v>9.6491228070175445</v>
       </c>
       <c r="BO131" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="BP131" s="18"/>
     </row>
     <row r="132" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A132" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>75</v>
@@ -31039,16 +31040,16 @@
         <v>10.090107002064952</v>
       </c>
       <c r="BO132" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="BP132" s="18"/>
     </row>
     <row r="133" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A133" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>84</v>
@@ -31271,10 +31272,10 @@
     </row>
     <row r="134" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A134" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>83</v>
@@ -31497,13 +31498,13 @@
     </row>
     <row r="135" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A135" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D135" s="16">
         <v>5</v>
@@ -31723,10 +31724,10 @@
     </row>
     <row r="136" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A136" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>80</v>
@@ -31947,10 +31948,10 @@
     </row>
     <row r="137" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A137" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>76</v>
@@ -32173,10 +32174,10 @@
     </row>
     <row r="138" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A138" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C138" s="14" t="s">
         <v>168</v>
@@ -32377,10 +32378,10 @@
     </row>
     <row r="139" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A139" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>87</v>
@@ -32603,10 +32604,10 @@
     </row>
     <row r="140" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A140" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>85</v>
@@ -32829,10 +32830,10 @@
     </row>
     <row r="141" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A141" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>79</v>
@@ -33054,13 +33055,13 @@
     </row>
     <row r="142" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A142" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D142" s="4">
         <v>13</v>
@@ -33274,16 +33275,16 @@
         <v>24.984384759525298</v>
       </c>
       <c r="BO142" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="BP142" s="18"/>
     </row>
     <row r="143" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A143" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>82</v>
@@ -33505,13 +33506,13 @@
     </row>
     <row r="144" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A144" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>198</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D144" s="4">
         <v>27</v>
@@ -33725,19 +33726,19 @@
         <v>15.279583875162547</v>
       </c>
       <c r="BO144" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="BP144" s="18"/>
     </row>
     <row r="145" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A145" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>198</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D145" s="4">
         <v>51</v>
@@ -33950,13 +33951,13 @@
         <v>15.977910151402334</v>
       </c>
       <c r="BO145" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="BP145" s="18"/>
     </row>
     <row r="146" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A146" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>198</v>
@@ -34182,7 +34183,7 @@
     </row>
     <row r="147" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A147" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>198</v>
@@ -34408,7 +34409,7 @@
     </row>
     <row r="148" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A148" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>198</v>
@@ -34634,7 +34635,7 @@
     </row>
     <row r="149" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A149" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>198</v>
@@ -34853,13 +34854,13 @@
         <v>11.207484650618849</v>
       </c>
       <c r="BO149" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="BP149" s="18"/>
     </row>
     <row r="150" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A150" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>198</v>
@@ -35084,7 +35085,7 @@
     </row>
     <row r="151" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A151" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>198</v>
@@ -35310,7 +35311,7 @@
     </row>
     <row r="152" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A152" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>198</v>
@@ -35536,13 +35537,13 @@
     </row>
     <row r="153" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A153" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>198</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D153" s="4">
         <v>34</v>
@@ -35762,13 +35763,13 @@
     </row>
     <row r="154" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A154" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>198</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D154" s="4">
         <v>51</v>
@@ -35988,7 +35989,7 @@
     </row>
     <row r="155" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A155" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>198</v>
@@ -36214,7 +36215,7 @@
     </row>
     <row r="156" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A156" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>198</v>
@@ -36439,13 +36440,13 @@
     </row>
     <row r="157" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A157" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>198</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D157" s="4">
         <v>44</v>
@@ -36664,7 +36665,7 @@
     </row>
     <row r="158" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A158" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>198</v>
@@ -36888,7 +36889,7 @@
     </row>
     <row r="159" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A159" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>198</v>
@@ -37114,7 +37115,7 @@
     </row>
     <row r="160" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A160" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>198</v>
@@ -37339,10 +37340,10 @@
     </row>
     <row r="161" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A161" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>121</v>
@@ -37564,13 +37565,13 @@
     </row>
     <row r="162" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A162" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D162" s="4">
         <v>25</v>
@@ -37790,10 +37791,10 @@
     </row>
     <row r="163" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A163" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>128</v>
@@ -38015,10 +38016,10 @@
     </row>
     <row r="164" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A164" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>117</v>
@@ -38240,10 +38241,10 @@
     </row>
     <row r="165" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A165" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>103</v>
@@ -38458,19 +38459,19 @@
         <v>10.420442189198985</v>
       </c>
       <c r="BO165" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="BP165" s="18"/>
     </row>
     <row r="166" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A166" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D166" s="4">
         <v>18</v>
@@ -38684,18 +38685,18 @@
         <v>7.6765609007164795</v>
       </c>
       <c r="BO166" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="167" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A167" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D167" s="4">
         <v>29</v>
@@ -38915,10 +38916,10 @@
     </row>
     <row r="168" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A168" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>127</v>
@@ -39139,13 +39140,13 @@
     </row>
     <row r="169" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A169" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D169" s="4">
         <v>52</v>
@@ -39365,10 +39366,10 @@
     </row>
     <row r="170" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A170" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C170" s="14" t="s">
         <v>168</v>
@@ -39569,10 +39570,10 @@
     </row>
     <row r="171" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A171" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>125</v>
@@ -39795,13 +39796,13 @@
     </row>
     <row r="172" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A172" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C172" s="14" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D172" s="16">
         <v>23</v>
@@ -39993,15 +39994,15 @@
         <v>8.6790487762541222</v>
       </c>
       <c r="BO172" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="173" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A173" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>126</v>
@@ -40224,13 +40225,13 @@
     </row>
     <row r="174" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A174" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D174" s="4">
         <v>50</v>
@@ -40449,10 +40450,10 @@
     </row>
     <row r="175" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A175" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>119</v>
@@ -40674,10 +40675,10 @@
     </row>
     <row r="176" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A176" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>122</v>
@@ -40897,13 +40898,13 @@
     </row>
     <row r="177" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A177" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B177" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C177" s="23" t="s">
         <v>246</v>
-      </c>
-      <c r="C177" s="23" t="s">
-        <v>247</v>
       </c>
       <c r="D177" s="24">
         <v>19</v>
@@ -41101,13 +41102,13 @@
     </row>
     <row r="178" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A178" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C178" s="23" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D178" s="24">
         <v>13</v>
